--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail10 Features.xlsx
@@ -1678,7 +1678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1689,29 +1689,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1732,115 +1730,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1857,72 +1845,66 @@
         <v>3.071457728014608e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.128761259136198</v>
+        <v>1.955364421283376e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>10.68959803384321</v>
+        <v>1.77290803242228e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.955364421283376e-06</v>
+        <v>-0.1000504141488006</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.77290803242228e-06</v>
+        <v>0.2895599693943091</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1000504141488006</v>
+        <v>0.09359463492924645</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2895599693943091</v>
+        <v>1.755978013133754</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09359463492924645</v>
+        <v>1.625971247906988</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.7037776857722</v>
+        <v>3.839184346485469</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.625971247906988</v>
+        <v>2.288509597258863e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.839184346485469</v>
+        <v>60459242.46700571</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.288509597258863e-15</v>
+        <v>1.89872658147264e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>60459242.46700571</v>
+        <v>8.365234900329526</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.89872658147264e-06</v>
+        <v>0.0001720700403892413</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8.365234900329526</v>
+        <v>8.603079788790911</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001720700403892413</v>
+        <v>1.448584075181871</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.603079788790911</v>
+        <v>0.0127354167766539</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.448584075181871</v>
+        <v>2.804600125442795</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0127354167766539</v>
+        <v>0.9499977938601866</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.804600125442795</v>
+        <v>1.734266425098456</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9499977938601866</v>
+        <v>1</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.734266425098456</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1547288278546647</v>
       </c>
     </row>
@@ -1937,72 +1919,66 @@
         <v>2.360649023452616e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.795264542399864</v>
+        <v>1.429386344106351e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8.340628574805775</v>
+        <v>1.746816080292246e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.429386344106351e-06</v>
+        <v>-0.09333917014581206</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.746816080292246e-06</v>
+        <v>0.2576144475861614</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.09333917014581206</v>
+        <v>0.07485588667100528</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2576144475861614</v>
+        <v>1.742319423003108</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07485588667100528</v>
+        <v>1.605167714260482</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.689126863339182</v>
+        <v>3.84202763171833</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.605167714260482</v>
+        <v>2.285123636270285e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.84202763171833</v>
+        <v>56826213.37523164</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.285123636270285e-15</v>
+        <v>1.996324729651115e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>56826213.37523164</v>
+        <v>7.379163581740968</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.996324729651115e-06</v>
+        <v>0.0001787221990270154</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>7.379163581740968</v>
+        <v>8.690959411906142</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001787221990270154</v>
+        <v>1.540235596804546</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.690959411906142</v>
+        <v>0.01349938373586663</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.540235596804546</v>
+        <v>2.821690707276741</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01349938373586663</v>
+        <v>0.9500851815714627</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.821690707276741</v>
+        <v>1.715872829792139</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9500851815714627</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.715872829792139</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1512270480696357</v>
       </c>
     </row>
@@ -2017,72 +1993,66 @@
         <v>1.884978028404964e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.505497445408185</v>
+        <v>1.066442249643618e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6.35925177262591</v>
+        <v>1.727981099052523e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.066442249643618e-06</v>
+        <v>-0.08528716075525715</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.727981099052523e-06</v>
+        <v>0.2184546931861935</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.08528716075525715</v>
+        <v>0.05483857195247445</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2184546931861935</v>
+        <v>1.744607430094315</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05483857195247445</v>
+        <v>1.597149200483238</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.689940320706992</v>
+        <v>3.863593152048262</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.597149200483238</v>
+        <v>2.259684960460785e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.863593152048262</v>
+        <v>57932037.95248245</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.259684960460785e-15</v>
+        <v>1.959784617731752e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>57932037.95248245</v>
+        <v>7.583776197380873</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.959784617731752e-06</v>
+        <v>0.0001641413837327037</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>7.583776197380873</v>
+        <v>10.03167691214015</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001641413837327037</v>
+        <v>1.159229763883455</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.03167691214015</v>
+        <v>0.01651829292094896</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.159229763883455</v>
+        <v>2.696344929748746</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01651829292094896</v>
+        <v>0.9507570506066026</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.696344929748746</v>
+        <v>1.724498097704397</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9507570506066026</v>
+        <v>1</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.724498097704397</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1612475337792433</v>
       </c>
     </row>
@@ -2097,72 +2067,66 @@
         <v>1.561885039855242e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.316084821770771</v>
+        <v>8.291070598725436e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>5.174401968819286</v>
+        <v>1.713997767690839e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.291070598725436e-07</v>
+        <v>-0.07823784430457655</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.713997767690839e-06</v>
+        <v>0.1863245659714824</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.07823784430457655</v>
+        <v>0.04074473613382165</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1863245659714824</v>
+        <v>1.745173457982474</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04074473613382165</v>
+        <v>1.588607262464798</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.688833467233108</v>
+        <v>3.902852870350811</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.588607262464798</v>
+        <v>2.214452205137348e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.902852870350811</v>
+        <v>60931421.37072437</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.214452205137348e-15</v>
+        <v>1.869710373281466e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>60931421.37072437</v>
+        <v>8.221459650135053</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.869710373281466e-06</v>
+        <v>0.0001662171363458172</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8.221459650135053</v>
+        <v>10.71903225314688</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001662171363458172</v>
+        <v>1.11188887126482</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.71903225314688</v>
+        <v>0.01909795876209916</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.11188887126482</v>
+        <v>2.50196160634144</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01909795876209916</v>
+        <v>0.9528608890714482</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.50196160634144</v>
+        <v>1.717276175907677</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9528608890714482</v>
+        <v>18</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.717276175907677</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1676250927264723</v>
       </c>
     </row>
@@ -2177,72 +2141,66 @@
         <v>1.327544616324734e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.205438254089568</v>
+        <v>6.778303180737543e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4.603932282199759</v>
+        <v>1.703092745055408e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.778303180737543e-07</v>
+        <v>-0.07377837195041063</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.703092745055408e-06</v>
+        <v>0.1704128657433003</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.07377837195041063</v>
+        <v>0.03443089404401364</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1704128657433003</v>
+        <v>1.746821760327709</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03443089404401364</v>
+        <v>1.567744382982995</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.690515418821322</v>
+        <v>3.968206792910592</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.567744382982995</v>
+        <v>2.142111525867699e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.968206792910592</v>
+        <v>63523356.11018292</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.142111525867699e-15</v>
+        <v>1.797528762576572e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>63523356.11018292</v>
+        <v>8.643884355607179</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.797528762576572e-06</v>
+        <v>0.0001619095260951309</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8.643884355607179</v>
+        <v>9.973172045150925</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001619095260951309</v>
+        <v>1.148801395182707</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.973172045150925</v>
+        <v>0.01610419511302531</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.148801395182707</v>
+        <v>2.649275839491371</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01610419511302531</v>
+        <v>0.9529272342146095</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.649275839491371</v>
+        <v>1.715482034177792</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9529272342146095</v>
+        <v>18</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.715482034177792</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1673761012442521</v>
       </c>
     </row>
@@ -2257,72 +2215,66 @@
         <v>1.142992827640637e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2.124731658643495</v>
+        <v>5.763999775458614e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>4.299169680744558</v>
+        <v>1.694148940427014e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.763999775458614e-07</v>
+        <v>-0.0717040218704379</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.694148940427014e-06</v>
+        <v>0.1677529728450298</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0717040218704379</v>
+        <v>0.0332454192969009</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1677529728450298</v>
+        <v>1.756694644653471</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0332454192969009</v>
+        <v>1.547794713752758</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.704279479686194</v>
+        <v>4.106942277334651</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.547794713752758</v>
+        <v>1.999831811919049e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.106942277334651</v>
+        <v>72328601.65600505</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.999831811919049e-15</v>
+        <v>1.601663746177565e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>72328601.65600505</v>
+        <v>10.46197337142268</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.601663746177565e-06</v>
+        <v>0.0001629141428706431</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>10.46197337142268</v>
+        <v>8.85006809299418</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001629141428706431</v>
+        <v>1.298121409212875</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.85006809299418</v>
+        <v>0.01276003930735987</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.298121409212875</v>
+        <v>2.790716578866925</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01276003930735987</v>
+        <v>0.9536872108303888</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.790716578866925</v>
+        <v>1.710537446979597</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9536872108303888</v>
+        <v>18</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.710537446979597</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1677158195342474</v>
       </c>
     </row>
@@ -2337,72 +2289,66 @@
         <v>9.898276724660899e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2.040203806245755</v>
+        <v>4.98498996073731e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>4.040505052318353</v>
+        <v>1.68658757040706e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.98498996073731e-07</v>
+        <v>-0.07050308355146266</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.68658757040706e-06</v>
+        <v>0.1705048495757824</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.07050308355146266</v>
+        <v>0.03401007772021714</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1705048495757824</v>
+        <v>1.754321720331159</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03401007772021714</v>
+        <v>1.519242309668264</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.702874937016111</v>
+        <v>4.396832712117801</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.519242309668264</v>
+        <v>1.744820624182653e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.396832712117801</v>
+        <v>82991997.15868782</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.744820624182653e-15</v>
+        <v>1.394023898209014e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>82991997.15868782</v>
+        <v>12.01775144699494</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.394023898209014e-06</v>
+        <v>0.0001757473477715353</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>12.01775144699494</v>
+        <v>8.2573631803408</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001757473477715353</v>
+        <v>1.571488186287193</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.2573631803408</v>
+        <v>0.01198316536645795</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.571488186287193</v>
+        <v>2.831356767738062</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01198316536645795</v>
+        <v>0.9539460500529886</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.831356767738062</v>
+        <v>1.712339165446321</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9539460500529886</v>
+        <v>18</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.712339165446321</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1776477382557455</v>
       </c>
     </row>
@@ -2417,72 +2363,66 @@
         <v>8.606486221662447e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.938259969386109</v>
+        <v>4.337291954648647e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>3.756281122548575</v>
+        <v>1.680136522694347e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.337291954648647e-07</v>
+        <v>-0.06921529469872477</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.680136522694347e-06</v>
+        <v>0.1754724067590178</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.06921529469872477</v>
+        <v>0.03555100971394153</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1754724067590178</v>
+        <v>1.756050403970186</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03555100971394153</v>
+        <v>1.499744573689823</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.705779275080977</v>
+        <v>4.958199591514452</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.499744573689823</v>
+        <v>1.372090192077512e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.958199591514452</v>
+        <v>105507431.9947489</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.372090192077512e-15</v>
+        <v>1.09502215518777e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>105507431.9947489</v>
+        <v>15.27385858061613</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.09502215518777e-06</v>
+        <v>0.0001749136072061868</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>15.27385858061613</v>
+        <v>9.531554399677066</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001749136072061868</v>
+        <v>1.271064739107879</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.531554399677066</v>
+        <v>0.01589099379190718</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.271064739107879</v>
+        <v>2.750122190192808</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01589099379190718</v>
+        <v>0.9528662445404604</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.750122190192808</v>
+        <v>1.69578652742808</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9528662445404604</v>
+        <v>18</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.69578652742808</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2303136895527258</v>
       </c>
     </row>
@@ -2859,7 +2799,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.175698528746165</v>
+        <v>1.177741421713491</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.07622906006686</v>
@@ -2948,7 +2888,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.174035051589997</v>
+        <v>1.17791784148766</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.116612372741339</v>
@@ -3037,7 +2977,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.17937375410681</v>
+        <v>1.184141238927213</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.060285051111531</v>
@@ -3126,7 +3066,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.173591929333165</v>
+        <v>1.182053591865212</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.233898426878317</v>
@@ -3215,7 +3155,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.174008998056496</v>
+        <v>1.185184056207922</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.202230068153346</v>
@@ -3304,7 +3244,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.163674832295901</v>
+        <v>1.169245771988478</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.17140550070342</v>
@@ -3393,7 +3333,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.157917006012508</v>
+        <v>1.161648657663945</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.133641305924832</v>
@@ -3482,7 +3422,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.160709416070388</v>
+        <v>1.163829745022994</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.130291436930094</v>
@@ -3571,7 +3511,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.161601506904119</v>
+        <v>1.162635272448518</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.954619147933908</v>
@@ -3660,7 +3600,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.160142631345024</v>
+        <v>1.158776384048336</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.027301908754131</v>
@@ -3749,7 +3689,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.165743447774988</v>
+        <v>1.165735926447343</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.896250232527664</v>
@@ -3838,7 +3778,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.174959911668249</v>
+        <v>1.177287990131174</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.915525481209155</v>
@@ -3927,7 +3867,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.175424325543066</v>
+        <v>1.175831022831851</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.925896907392772</v>
@@ -4016,7 +3956,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.164090856567788</v>
+        <v>1.161310174237692</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.940382299771006</v>
@@ -4105,7 +4045,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.163321796775397</v>
+        <v>1.165115381990371</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.956148649756943</v>
@@ -4194,7 +4134,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.16513565169915</v>
+        <v>1.162776210146302</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.015597577817424</v>
@@ -4283,7 +4223,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.169306955547209</v>
+        <v>1.163442676802489</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.015495937535919</v>
@@ -4372,7 +4312,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.164587633567999</v>
+        <v>1.155117405019158</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.170869255534518</v>
@@ -4461,7 +4401,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.162530402131343</v>
+        <v>1.155709269371917</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.076239799412757</v>
@@ -4550,7 +4490,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.163760463532126</v>
+        <v>1.15655864465328</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.022750513322517</v>
@@ -4639,7 +4579,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.169835526454735</v>
+        <v>1.167911294363109</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.918437850390202</v>
@@ -4728,7 +4668,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.181156923196105</v>
+        <v>1.180651764053026</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.94777041967641</v>
@@ -4817,7 +4757,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.170804746626324</v>
+        <v>1.16936324661387</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.038193441223584</v>
@@ -4906,7 +4846,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.173722051653544</v>
+        <v>1.171163715710414</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.995804414519038</v>
@@ -4995,7 +4935,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.185144503300071</v>
+        <v>1.189383385165394</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.041014474942811</v>
@@ -5084,7 +5024,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.189640065318647</v>
+        <v>1.192229433886282</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.139002493607649</v>
@@ -5173,7 +5113,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.180146804690489</v>
+        <v>1.180768339064999</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.047854065058203</v>
@@ -5262,7 +5202,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.184184579096468</v>
+        <v>1.184857005255733</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.062686505115785</v>
@@ -5351,7 +5291,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.196157727530083</v>
+        <v>1.195870199321042</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.053482298311379</v>
@@ -5440,7 +5380,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.206958694684647</v>
+        <v>1.206909800382564</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.138292860893402</v>
@@ -5529,7 +5469,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.200548602473948</v>
+        <v>1.197378859130416</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.099384596256791</v>
@@ -5618,7 +5558,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.185408004737588</v>
+        <v>1.176450659890573</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.06221929201268</v>
@@ -5707,7 +5647,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.197767853875602</v>
+        <v>1.191480976226185</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.034759415653543</v>
@@ -5796,7 +5736,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.222637004598059</v>
+        <v>1.215711921701656</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.247464481305736</v>
@@ -5885,7 +5825,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.229067445272294</v>
+        <v>1.224004664276821</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.162097866438917</v>
@@ -5974,7 +5914,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.225899711918369</v>
+        <v>1.219204836186504</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.199762285607118</v>
@@ -6063,7 +6003,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.221611443585756</v>
+        <v>1.211382708469135</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.051552302554397</v>
@@ -6152,7 +6092,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.228636959286345</v>
+        <v>1.2159191795477</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.000275074332235</v>
@@ -6241,7 +6181,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.240491296769482</v>
+        <v>1.227299087345957</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.113145646368599</v>
@@ -6330,7 +6270,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.231861009956444</v>
+        <v>1.217382420352935</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.119940172190591</v>
@@ -6419,7 +6359,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.227414846096437</v>
+        <v>1.214392537672548</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.132452457288499</v>
@@ -6508,7 +6448,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.221194918827848</v>
+        <v>1.209587578525684</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.047117126547128</v>
@@ -6597,7 +6537,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.217644221558557</v>
+        <v>1.205301585433233</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.190117485989958</v>
@@ -6686,7 +6626,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.216230699703096</v>
+        <v>1.209655226253643</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.275423959775925</v>
@@ -6775,7 +6715,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.211542088106668</v>
+        <v>1.201396602389724</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.161688130465234</v>
@@ -6864,7 +6804,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.225752472195293</v>
+        <v>1.223519274130753</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.937815077537965</v>
@@ -6953,7 +6893,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.244190615006164</v>
+        <v>1.247735539056235</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.282651162066965</v>
@@ -7042,7 +6982,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.236178738063782</v>
+        <v>1.242221432261661</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.364874833643311</v>
@@ -7131,7 +7071,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.229837861888488</v>
+        <v>1.231960096778273</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.360872274707669</v>
@@ -7220,7 +7160,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.223394686958079</v>
+        <v>1.226256561336932</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.316668718367619</v>
@@ -7309,7 +7249,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.224907867681614</v>
+        <v>1.227229186410552</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.181447773521714</v>
@@ -7398,7 +7338,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.243637166288074</v>
+        <v>1.24936961050977</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.012889784839945</v>
@@ -7487,7 +7427,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.26799928853608</v>
+        <v>1.279604012406709</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.266586593742707</v>
@@ -7773,7 +7713,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.636491849720396</v>
+        <v>1.653089015748038</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.647651316648437</v>
@@ -7862,7 +7802,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.660257924247248</v>
+        <v>1.669804898462153</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.541031287997523</v>
@@ -7951,7 +7891,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.67464449834586</v>
+        <v>1.689343460986154</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.617753759236137</v>
@@ -8040,7 +7980,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.693057838725421</v>
+        <v>1.706829008099804</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.52661491017677</v>
@@ -8129,7 +8069,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.723933317083836</v>
+        <v>1.740118442719883</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.442015080324474</v>
@@ -8218,7 +8158,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.722014653589683</v>
+        <v>1.740675206222777</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.796557718208467</v>
@@ -8307,7 +8247,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.765469821082864</v>
+        <v>1.777201047660244</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.642983330947026</v>
@@ -8396,7 +8336,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.766973532332567</v>
+        <v>1.775038952958</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.969326999149287</v>
@@ -8485,7 +8425,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.772805943814436</v>
+        <v>1.78158066347219</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.41658197703268</v>
@@ -8574,7 +8514,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.787247572326643</v>
+        <v>1.790570526717358</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.203293854603822</v>
@@ -8663,7 +8603,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.795356736067186</v>
+        <v>1.795702458441518</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.949244492047149</v>
@@ -8752,7 +8692,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.804467970128295</v>
+        <v>1.797547750436031</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.327587963095638</v>
@@ -8841,7 +8781,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.807097456671811</v>
+        <v>1.798381174894738</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.054617567565459</v>
@@ -8930,7 +8870,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.802749787334384</v>
+        <v>1.792205378218021</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.327724948100871</v>
@@ -9019,7 +8959,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.787817886257332</v>
+        <v>1.782950884964092</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.14339477316605</v>
@@ -9108,7 +9048,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.778210978283963</v>
+        <v>1.773893076454064</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.036596141199683</v>
@@ -9197,7 +9137,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.772218189875802</v>
+        <v>1.769605535598136</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.183900877563155</v>
@@ -9286,7 +9226,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.74966365275856</v>
+        <v>1.751009516977083</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.199889394131562</v>
@@ -9375,7 +9315,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.739747354290637</v>
+        <v>1.74113920291676</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.283854878113558</v>
@@ -9464,7 +9404,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.749485236740043</v>
+        <v>1.749615687155037</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.217880482638543</v>
@@ -9553,7 +9493,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.755310053075505</v>
+        <v>1.753427335516029</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.278146669489149</v>
@@ -9642,7 +9582,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.758434255506094</v>
+        <v>1.75654992189629</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.38451945122164</v>
@@ -9731,7 +9671,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.763037188146157</v>
+        <v>1.758577424752799</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.017211241491759</v>
@@ -9820,7 +9760,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.771865374824504</v>
+        <v>1.758775007207753</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.168159488545244</v>
@@ -9909,7 +9849,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.773679546560029</v>
+        <v>1.764175477144751</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.264022401897631</v>
@@ -9998,7 +9938,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.775835846955614</v>
+        <v>1.756610273285109</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.34765026127043</v>
@@ -10087,7 +10027,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.749368807347904</v>
+        <v>1.733950513555377</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.976402445394329</v>
@@ -10176,7 +10116,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.744559882823036</v>
+        <v>1.731195874824035</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.113073220409457</v>
@@ -10265,7 +10205,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.748076881748662</v>
+        <v>1.731353327025209</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.940014874454831</v>
@@ -10354,7 +10294,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.760097858476128</v>
+        <v>1.730936373048202</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.137194468658041</v>
@@ -10443,7 +10383,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.726405140687707</v>
+        <v>1.704155065438866</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.719570989875498</v>
@@ -10532,7 +10472,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.714557443719657</v>
+        <v>1.701017991227478</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.841882804546665</v>
@@ -10621,7 +10561,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.732704824877642</v>
+        <v>1.711523108675514</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.908625667436207</v>
@@ -10710,7 +10650,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.747565172440808</v>
+        <v>1.728359206876281</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.771841160878384</v>
@@ -10799,7 +10739,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.747246133006217</v>
+        <v>1.724787852987704</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.999682803340812</v>
@@ -10888,7 +10828,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.744422070493525</v>
+        <v>1.718987982265864</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.896748691745727</v>
@@ -10977,7 +10917,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.743418976130398</v>
+        <v>1.716998619531706</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.855989547823808</v>
@@ -11066,7 +11006,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.72888659119107</v>
+        <v>1.706624035240959</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.867455053426236</v>
@@ -11155,7 +11095,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.730438496987375</v>
+        <v>1.706441136820162</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.013371076010417</v>
@@ -11244,7 +11184,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.731425077073433</v>
+        <v>1.707915996535891</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.871890582209021</v>
@@ -11333,7 +11273,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.733398040479009</v>
+        <v>1.713060930481424</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.852249138462237</v>
@@ -11422,7 +11362,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.740695000106986</v>
+        <v>1.720655575118173</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.895818906270408</v>
@@ -11511,7 +11451,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.726879602791153</v>
+        <v>1.70883574144126</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.891389211677168</v>
@@ -11600,7 +11540,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.7256572562083</v>
+        <v>1.715037040938108</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.962398649521465</v>
@@ -11689,7 +11629,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.730860430109635</v>
+        <v>1.720821862026483</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.60732286422841</v>
@@ -11778,7 +11718,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.778811942079538</v>
+        <v>1.761564226757967</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.746388869423746</v>
@@ -11867,7 +11807,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.784515052315961</v>
+        <v>1.76148999262024</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.203636226923527</v>
@@ -11956,7 +11896,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.769648653673496</v>
+        <v>1.748864220460532</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.308735823062723</v>
@@ -12045,7 +11985,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.753065843399424</v>
+        <v>1.736805871267576</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.356204524896794</v>
@@ -12134,7 +12074,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.732031451139974</v>
+        <v>1.723739825096709</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.197576870005451</v>
@@ -12223,7 +12163,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.73804794860072</v>
+        <v>1.729100549109352</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.116840070630674</v>
@@ -12312,7 +12252,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.739697604839045</v>
+        <v>1.730824236468449</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.26169230713351</v>
@@ -12401,7 +12341,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.764323218628724</v>
+        <v>1.749577361303511</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.837012404029939</v>
@@ -12687,7 +12627,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.5905913237438</v>
+        <v>1.602683571169486</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.623310276615868</v>
@@ -12776,7 +12716,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.605845912499681</v>
+        <v>1.617543323600629</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.3792102521376</v>
@@ -12865,7 +12805,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.615902876024454</v>
+        <v>1.624224269428013</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.544896670942384</v>
@@ -12954,7 +12894,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.61323511604243</v>
+        <v>1.617381751358435</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.582429333558609</v>
@@ -13043,7 +12983,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.652511493573814</v>
+        <v>1.652409559297991</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.690103149066036</v>
@@ -13132,7 +13072,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.651820288384339</v>
+        <v>1.650687795410487</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.922670603711544</v>
@@ -13221,7 +13161,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.696343112893455</v>
+        <v>1.684723933928151</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.63086085242023</v>
@@ -13310,7 +13250,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.69441556200324</v>
+        <v>1.686172487617029</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.895998380403748</v>
@@ -13399,7 +13339,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.691669355950004</v>
+        <v>1.681955014224011</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.909999731176645</v>
@@ -13488,7 +13428,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.682601515818584</v>
+        <v>1.67460706212861</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.662006493098327</v>
@@ -13577,7 +13517,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.715031230431669</v>
+        <v>1.695337468511309</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.73329946143372</v>
@@ -13666,7 +13606,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.719342811927167</v>
+        <v>1.687859816955139</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.888838555844125</v>
@@ -13755,7 +13695,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.713824353162851</v>
+        <v>1.68167013369221</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.984602990664124</v>
@@ -13844,7 +13784,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.707272905170927</v>
+        <v>1.670263315805777</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.035252211216761</v>
@@ -13933,7 +13873,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.705589871276624</v>
+        <v>1.667344645858088</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.261949403378012</v>
@@ -14022,7 +13962,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.699642546188896</v>
+        <v>1.658828205783993</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.112665952335679</v>
@@ -14111,7 +14051,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.683926488299012</v>
+        <v>1.645779384631681</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.926647830051302</v>
@@ -14200,7 +14140,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.667589269211175</v>
+        <v>1.631203953662795</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.03384530379341</v>
@@ -14289,7 +14229,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.664669277897604</v>
+        <v>1.632904398165541</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.077509476299692</v>
@@ -14378,7 +14318,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.667185244862201</v>
+        <v>1.636758675113883</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.113553310609456</v>
@@ -14467,7 +14407,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.666894737027139</v>
+        <v>1.63802955325882</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.005915440451519</v>
@@ -14556,7 +14496,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.659797319557329</v>
+        <v>1.634489662287231</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.847624656357528</v>
@@ -14645,7 +14585,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.658795318861082</v>
+        <v>1.631507589433289</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.080441611469587</v>
@@ -14734,7 +14674,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.66865090880561</v>
+        <v>1.641887258386215</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.648127315636841</v>
@@ -14823,7 +14763,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.689912032200765</v>
+        <v>1.656601660692463</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.424576101311603</v>
@@ -14912,7 +14852,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.688181568560022</v>
+        <v>1.658274038743821</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.487581383017132</v>
@@ -15001,7 +14941,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.662481736510652</v>
+        <v>1.641939957589714</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.846844816630179</v>
@@ -15090,7 +15030,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.643924713075157</v>
+        <v>1.626412431903385</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.886829252171748</v>
@@ -15179,7 +15119,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.651822925518286</v>
+        <v>1.635484838360941</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.911035971151166</v>
@@ -15268,7 +15208,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.65809672871938</v>
+        <v>1.640721973167182</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.898320720872439</v>
@@ -15357,7 +15297,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.622359900466637</v>
+        <v>1.615734630410908</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.672522615533917</v>
@@ -15446,7 +15386,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.616163943160275</v>
+        <v>1.6136974282887</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.904226383867667</v>
@@ -15535,7 +15475,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.627799098223039</v>
+        <v>1.622705444692368</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.861749008771465</v>
@@ -15624,7 +15564,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.633980071558044</v>
+        <v>1.623140941988944</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.778664680827192</v>
@@ -15713,7 +15653,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.639833183332236</v>
+        <v>1.623819849812891</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.868046605007805</v>
@@ -15802,7 +15742,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.645794314406206</v>
+        <v>1.629322946286338</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.8178741245298</v>
@@ -15891,7 +15831,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.644478036824113</v>
+        <v>1.628855826722491</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.943088503978162</v>
@@ -15980,7 +15920,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.6523665329639</v>
+        <v>1.63599161080305</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.940403042046975</v>
@@ -16069,7 +16009,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.656859869449396</v>
+        <v>1.64129389400128</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.897347345575946</v>
@@ -16158,7 +16098,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.657877581908224</v>
+        <v>1.639555587256555</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.802633402106768</v>
@@ -16247,7 +16187,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.658355843279225</v>
+        <v>1.64117876450625</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.884914051809305</v>
@@ -16336,7 +16276,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.682669252783726</v>
+        <v>1.660198609495046</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.943292724886893</v>
@@ -16425,7 +16365,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.690025777864176</v>
+        <v>1.664586432621319</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.687941827755093</v>
@@ -16514,7 +16454,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.689131533826087</v>
+        <v>1.668342527495343</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.706574296898524</v>
@@ -16603,7 +16543,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.688105279149221</v>
+        <v>1.666934015634146</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.533838916155569</v>
@@ -16692,7 +16632,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.73578219186922</v>
+        <v>1.701237800232513</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.172398620235201</v>
@@ -16781,7 +16721,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.746701735556885</v>
+        <v>1.70055589247104</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.518366223896156</v>
@@ -16870,7 +16810,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.739227664001953</v>
+        <v>1.695226654019274</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.652165438919688</v>
@@ -16959,7 +16899,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.731843057702225</v>
+        <v>1.698119346433399</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.371144513259698</v>
@@ -17048,7 +16988,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.717072073606533</v>
+        <v>1.691633303564171</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.30935459708288</v>
@@ -17137,7 +17077,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.721804702239395</v>
+        <v>1.692849444059481</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.134077441073237</v>
@@ -17226,7 +17166,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.73439642818326</v>
+        <v>1.698180914075404</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.644943051191917</v>
@@ -17315,7 +17255,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.730162590074735</v>
+        <v>1.691721342067696</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.603012302516896</v>
@@ -17601,7 +17541,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.629395626579228</v>
+        <v>1.605258311609049</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.926336893237449</v>
@@ -17690,7 +17630,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.64011759969161</v>
+        <v>1.614450617390362</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.671608005298346</v>
@@ -17779,7 +17719,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.63615091299282</v>
+        <v>1.611097365002952</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.874932462810906</v>
@@ -17868,7 +17808,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.629953105705451</v>
+        <v>1.598523837048772</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.745219291575285</v>
@@ -17957,7 +17897,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.657596693087042</v>
+        <v>1.622069897921986</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.115359324596513</v>
@@ -18046,7 +17986,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.662367928984408</v>
+        <v>1.620513256648337</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.720336257573694</v>
@@ -18135,7 +18075,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.670957841511907</v>
+        <v>1.634993995962158</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.589291353353845</v>
@@ -18224,7 +18164,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.684792647085425</v>
+        <v>1.646790824449073</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.51118175071883</v>
@@ -18313,7 +18253,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.679887122581686</v>
+        <v>1.640336755166622</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.371632511497767</v>
@@ -18402,7 +18342,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.684819101784659</v>
+        <v>1.651020287637798</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.040056632786983</v>
@@ -18491,7 +18431,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.701266878377905</v>
+        <v>1.665551750176613</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.983497081231957</v>
@@ -18580,7 +18520,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.711184631147461</v>
+        <v>1.672589826587927</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.231305710477574</v>
@@ -18669,7 +18609,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.721510129437791</v>
+        <v>1.687795610820849</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.301027009464542</v>
@@ -18758,7 +18698,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.727759572058294</v>
+        <v>1.687055603906748</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.428192575790071</v>
@@ -18847,7 +18787,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.718681222745764</v>
+        <v>1.682607702426303</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.301896273206227</v>
@@ -18936,7 +18876,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.715946682112196</v>
+        <v>1.682519925350338</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.231726929894779</v>
@@ -19025,7 +18965,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.713829764167024</v>
+        <v>1.6848455203345</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.149262239575002</v>
@@ -19114,7 +19054,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.700644229387907</v>
+        <v>1.678650520516219</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.400120006539953</v>
@@ -19203,7 +19143,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.706458753129965</v>
+        <v>1.681180763490588</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.045661998199193</v>
@@ -19292,7 +19232,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.710299288802421</v>
+        <v>1.68283410418009</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.221309090279112</v>
@@ -19381,7 +19321,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.706407244944367</v>
+        <v>1.678563084888242</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.082382947972023</v>
@@ -19470,7 +19410,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.701688351736033</v>
+        <v>1.670006526786939</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.057609506202329</v>
@@ -19559,7 +19499,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.695272709151343</v>
+        <v>1.661224001081657</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.108215582310573</v>
@@ -19648,7 +19588,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.709500419318398</v>
+        <v>1.67352039493872</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.761045032490903</v>
@@ -19737,7 +19677,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.723865002936914</v>
+        <v>1.680135436914896</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.04172788033307</v>
@@ -19826,7 +19766,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.717388751251609</v>
+        <v>1.670163299760631</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.821387625023458</v>
@@ -19915,7 +19855,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.684800693710134</v>
+        <v>1.639871321494096</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.218027874666224</v>
@@ -20004,7 +19944,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.668897832826282</v>
+        <v>1.62271802052671</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.092426223595806</v>
@@ -20093,7 +20033,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.664269205751775</v>
+        <v>1.617454114406806</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.99117601895017</v>
@@ -20182,7 +20122,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.675876324364697</v>
+        <v>1.625936906083679</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.897443674823148</v>
@@ -20271,7 +20211,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.655551567335171</v>
+        <v>1.606812783304143</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.794453780584268</v>
@@ -20360,7 +20300,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.634672370706881</v>
+        <v>1.587227771652605</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.945677297702114</v>
@@ -20449,7 +20389,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.640865488880701</v>
+        <v>1.590457198969537</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.924154850784142</v>
@@ -20538,7 +20478,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.642713336815069</v>
+        <v>1.587230748894229</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.89942235016261</v>
@@ -20627,7 +20567,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.64234686850413</v>
+        <v>1.581912057474381</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.855644776355986</v>
@@ -20716,7 +20656,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.65069369178274</v>
+        <v>1.58783907715919</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.990742977098604</v>
@@ -20805,7 +20745,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.643200886412786</v>
+        <v>1.583474531358607</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.903249760644258</v>
@@ -20894,7 +20834,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.646799007420843</v>
+        <v>1.588602792223874</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.991203275567411</v>
@@ -20983,7 +20923,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.644738949492048</v>
+        <v>1.584958071788446</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.770425765821691</v>
@@ -21072,7 +21012,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.644700642748978</v>
+        <v>1.581235816461772</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.778875216819415</v>
@@ -21161,7 +21101,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.642196720851111</v>
+        <v>1.584722379963046</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.711766386622076</v>
@@ -21250,7 +21190,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.661112330165184</v>
+        <v>1.603162837077815</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.944391339241736</v>
@@ -21339,7 +21279,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.673306119952028</v>
+        <v>1.609689966423902</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.63868647372317</v>
@@ -21428,7 +21368,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.668967172028543</v>
+        <v>1.609464479978006</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.789337378713892</v>
@@ -21517,7 +21457,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.666541537405182</v>
+        <v>1.60678893961685</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.850817485801476</v>
@@ -21606,7 +21546,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.700044827562522</v>
+        <v>1.633240188357212</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.724624217472038</v>
@@ -21695,7 +21635,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.720822568378118</v>
+        <v>1.650036775036817</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.145496895020033</v>
@@ -21784,7 +21724,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.715295289690892</v>
+        <v>1.640781715542491</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.076855740704683</v>
@@ -21873,7 +21813,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.711941452350913</v>
+        <v>1.646085113550451</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.550346244109456</v>
@@ -21962,7 +21902,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.715753787964627</v>
+        <v>1.651930512802749</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.164448143707262</v>
@@ -22051,7 +21991,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.7175698946705</v>
+        <v>1.653071120835569</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.916892071592819</v>
@@ -22140,7 +22080,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.729111324745253</v>
+        <v>1.66179560129455</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.606660351275463</v>
@@ -22229,7 +22169,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.730112117792949</v>
+        <v>1.664561871577324</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.38901357714795</v>
@@ -22515,7 +22455,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.564195674048948</v>
+        <v>1.542538221807741</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.538633555827404</v>
@@ -22604,7 +22544,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.571229849848686</v>
+        <v>1.544630971335676</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.612891394073579</v>
@@ -22693,7 +22633,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.58244370625217</v>
+        <v>1.549389811090745</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.505394707799014</v>
@@ -22782,7 +22722,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.614455839623016</v>
+        <v>1.573783543961384</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.506498121946921</v>
@@ -22871,7 +22811,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.652876939934088</v>
+        <v>1.602141310075555</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.596757443564441</v>
@@ -22960,7 +22900,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.655689967580576</v>
+        <v>1.601841102706046</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.577374037106387</v>
@@ -23049,7 +22989,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.687223157575371</v>
+        <v>1.62803116610537</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.587289404691821</v>
@@ -23138,7 +23078,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.6890520673472</v>
+        <v>1.634499703435736</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.780420315055182</v>
@@ -23227,7 +23167,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.694648777961316</v>
+        <v>1.642231584955594</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.398375273774269</v>
@@ -23316,7 +23256,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.695225520302217</v>
+        <v>1.641994527608277</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.196389586913309</v>
@@ -23405,7 +23345,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.701112859997374</v>
+        <v>1.643632850778854</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.100494735190886</v>
@@ -23494,7 +23434,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.692994942025799</v>
+        <v>1.632730833196385</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.559108537029973</v>
@@ -23583,7 +23523,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.684503629208071</v>
+        <v>1.62506475587884</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.731839830045803</v>
@@ -23672,7 +23612,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.68327909942886</v>
+        <v>1.617898046809787</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.538555635078501</v>
@@ -23761,7 +23701,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.681839988110452</v>
+        <v>1.613659166172591</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.50756161069817</v>
@@ -23850,7 +23790,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.653269521197545</v>
+        <v>1.598294173110778</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.997708957646541</v>
@@ -23939,7 +23879,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.637316565074003</v>
+        <v>1.588161044559584</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.017260833049808</v>
@@ -24028,7 +23968,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.518796221987269</v>
+        <v>1.490035501463949</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.924226668257977</v>
@@ -24117,7 +24057,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.513849233594302</v>
+        <v>1.486069066348098</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.976085138655716</v>
@@ -24206,7 +24146,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.51457534359983</v>
+        <v>1.48563183149384</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.965092045662549</v>
@@ -24295,7 +24235,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.520173393181885</v>
+        <v>1.491050869509987</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.97393734191953</v>
@@ -24384,7 +24324,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.522852999153304</v>
+        <v>1.49431914187713</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.995025673747363</v>
@@ -24473,7 +24413,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.527530013141635</v>
+        <v>1.496975068682136</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.018554288850535</v>
@@ -24562,7 +24502,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.526050935155225</v>
+        <v>1.496499044882544</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.989923582495549</v>
@@ -24651,7 +24591,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.519863629863893</v>
+        <v>1.493885258086882</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.005084830290355</v>
@@ -24740,7 +24680,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.52346125288598</v>
+        <v>1.498233577405375</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.993706749967226</v>
@@ -24829,7 +24769,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.520011308298109</v>
+        <v>1.496983471338383</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.001535328319764</v>
@@ -24918,7 +24858,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.523643078078344</v>
+        <v>1.504207537163651</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.018535861465707</v>
@@ -25007,7 +24947,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.528001073805909</v>
+        <v>1.505940535304613</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.047102046230591</v>
@@ -25096,7 +25036,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.528311251662136</v>
+        <v>1.50422735310154</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.055211477678929</v>
@@ -25185,7 +25125,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.532000571692019</v>
+        <v>1.507664360422738</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.997697484695418</v>
@@ -25274,7 +25214,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.534833204040494</v>
+        <v>1.511310018749344</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.030264009627354</v>
@@ -25363,7 +25303,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.636052428431014</v>
+        <v>1.594327162991513</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.55670338934099</v>
@@ -25452,7 +25392,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.650252328588013</v>
+        <v>1.605886128841371</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.171370784675302</v>
@@ -25541,7 +25481,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.64089973284163</v>
+        <v>1.592408390337694</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.420285029258364</v>
@@ -25630,7 +25570,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.639278922905421</v>
+        <v>1.590005961525062</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.229253971794488</v>
@@ -25719,7 +25659,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.643819888885188</v>
+        <v>1.591505899885678</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.995814967285209</v>
@@ -25808,7 +25748,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.627863024962367</v>
+        <v>1.575997485879662</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.027283125926807</v>
@@ -25897,7 +25837,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.624067311134674</v>
+        <v>1.567016979527641</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.071001762080898</v>
@@ -25986,7 +25926,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.633349906939243</v>
+        <v>1.574696283330692</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.154509493355803</v>
@@ -26075,7 +26015,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.636984053446797</v>
+        <v>1.579830181494102</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.931166551460787</v>
@@ -26164,7 +26104,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.646264856286073</v>
+        <v>1.587415113110525</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.151155739931523</v>
@@ -26253,7 +26193,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.636266561591471</v>
+        <v>1.576755958535896</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.966042805410658</v>
@@ -26342,7 +26282,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.632027769492676</v>
+        <v>1.586644674948952</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.900950716273372</v>
@@ -26431,7 +26371,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.629020945356902</v>
+        <v>1.583185082154352</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.790963349687624</v>
@@ -26520,7 +26460,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.64274165247163</v>
+        <v>1.591475415403247</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.007287447770584</v>
@@ -26609,7 +26549,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.64022338754815</v>
+        <v>1.584012938241781</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.240528064170235</v>
@@ -26698,7 +26638,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.652232155724518</v>
+        <v>1.590801207864119</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.107387469514114</v>
@@ -26787,7 +26727,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.635852932403864</v>
+        <v>1.576727446052836</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.850799672691116</v>
@@ -26876,7 +26816,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.63542011253493</v>
+        <v>1.580381677064566</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.181617325533387</v>
@@ -26965,7 +26905,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.637994070020527</v>
+        <v>1.581412831108268</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.967386111327479</v>
@@ -27054,7 +26994,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.633332723778804</v>
+        <v>1.574266709121457</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.992866585072544</v>
@@ -27143,7 +27083,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.649871466635957</v>
+        <v>1.590955084418077</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.737130890379461</v>
@@ -27429,7 +27369,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.226147933162105</v>
+        <v>1.244883868100249</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.18161439446415</v>
@@ -27518,7 +27458,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.237659802832263</v>
+        <v>1.262922989471608</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.113723461709748</v>
@@ -27607,7 +27547,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.246724772028438</v>
+        <v>1.278971248376197</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.09541117864407</v>
@@ -27696,7 +27636,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.276810344434887</v>
+        <v>1.31211342636152</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.174511974095038</v>
@@ -27785,7 +27725,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.300037495802902</v>
+        <v>1.343064492569</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.462289809885761</v>
@@ -27874,7 +27814,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.286971446193069</v>
+        <v>1.326656556125838</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.228919916893101</v>
@@ -27963,7 +27903,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.291536640161795</v>
+        <v>1.334085948484201</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.384538645277186</v>
@@ -28052,7 +27992,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.280760441416966</v>
+        <v>1.322829104550162</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.185279099806997</v>
@@ -28141,7 +28081,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.28872051795605</v>
+        <v>1.332319676867243</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.195123120864419</v>
@@ -28230,7 +28170,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.295944813656504</v>
+        <v>1.33880771279299</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.469964213221653</v>
@@ -28319,7 +28259,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.30128836569369</v>
+        <v>1.350261038751629</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.483221992628076</v>
@@ -28408,7 +28348,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.334324653226849</v>
+        <v>1.390413499715099</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.426476734679073</v>
@@ -28497,7 +28437,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.365349347956294</v>
+        <v>1.425691333370331</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.45789516912814</v>
@@ -28586,7 +28526,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.382137725023464</v>
+        <v>1.442898754128288</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.245810818268566</v>
@@ -28675,7 +28615,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.386452590394101</v>
+        <v>1.442393864111232</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.352453575615125</v>
@@ -28764,7 +28704,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.408904246348228</v>
+        <v>1.462813981200881</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.347181960510791</v>
@@ -28853,7 +28793,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.403064066430197</v>
+        <v>1.45714745622938</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.414115492253452</v>
@@ -28942,7 +28882,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.406677266333156</v>
+        <v>1.455300172571269</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.354436042604386</v>
@@ -29031,7 +28971,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.397249458506287</v>
+        <v>1.446579238819727</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.341024449027274</v>
@@ -29120,7 +29060,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.379793104568709</v>
+        <v>1.424571637978095</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.152152211875097</v>
@@ -29209,7 +29149,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.403970106955642</v>
+        <v>1.453155582801625</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.192608918966207</v>
@@ -29298,7 +29238,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.411713336998752</v>
+        <v>1.459703284547385</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.412157199985701</v>
@@ -29387,7 +29327,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.435475729982984</v>
+        <v>1.484326492236671</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.325058838488529</v>
@@ -29476,7 +29416,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.439048360087716</v>
+        <v>1.487079859440514</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.206925619341743</v>
@@ -29565,7 +29505,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.443097264060776</v>
+        <v>1.491441344917842</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.371919192641897</v>
@@ -29654,7 +29594,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.450058271833759</v>
+        <v>1.498562061547709</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.270532081426149</v>
@@ -29743,7 +29683,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.414144010624721</v>
+        <v>1.457020250449738</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.218968363718345</v>
@@ -29832,7 +29772,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.386277452030603</v>
+        <v>1.429003529510506</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.282788947923689</v>
@@ -29921,7 +29861,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.385978417191405</v>
+        <v>1.428189859098386</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.303977592656819</v>
@@ -30010,7 +29950,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.389728946061218</v>
+        <v>1.433101588473066</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.172398499534062</v>
@@ -30099,7 +30039,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.337574227002365</v>
+        <v>1.35695407730583</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.876579981658134</v>
@@ -30188,7 +30128,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.275887083064646</v>
+        <v>1.308516929033189</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.902865552233205</v>
@@ -30277,7 +30217,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.267879931105993</v>
+        <v>1.301740615252443</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.841935449104304</v>
@@ -30366,7 +30306,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.289615895146444</v>
+        <v>1.326575418791712</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.88478182948994</v>
@@ -30455,7 +30395,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.293893403147762</v>
+        <v>1.333307375635082</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.8313940184033</v>
@@ -30544,7 +30484,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.296340266637815</v>
+        <v>1.333461443813317</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.836232188519953</v>
@@ -30633,7 +30573,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.294746950433964</v>
+        <v>1.333145293817354</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.852821241979026</v>
@@ -30722,7 +30662,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.289128329349662</v>
+        <v>1.323794384696689</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.916135603050739</v>
@@ -30811,7 +30751,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.289961149902491</v>
+        <v>1.321778706550595</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.855396637096186</v>
@@ -30900,7 +30840,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.266219153616275</v>
+        <v>1.29692234737006</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.886397206805363</v>
@@ -30989,7 +30929,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.266976992550081</v>
+        <v>1.298988836421599</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.904421984568015</v>
@@ -31078,7 +31018,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.28692044404429</v>
+        <v>1.322026785563741</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.86936689349671</v>
@@ -31167,7 +31107,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.29775043889361</v>
+        <v>1.333950771879957</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.883244574818494</v>
@@ -31256,7 +31196,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.304505563319055</v>
+        <v>1.340654016873271</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.911935766487998</v>
@@ -31345,7 +31285,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.306202495118386</v>
+        <v>1.342663876293062</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.85635948184887</v>
@@ -31434,7 +31374,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.390990506459316</v>
+        <v>1.43884517809987</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.771849580241032</v>
@@ -31523,7 +31463,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.409973248327418</v>
+        <v>1.457924490662238</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.533809031964986</v>
@@ -31612,7 +31552,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.419923989993141</v>
+        <v>1.467865896264555</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.373564374281909</v>
@@ -31701,7 +31641,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.411336097364098</v>
+        <v>1.457128958886502</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.470161612108792</v>
@@ -31790,7 +31730,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.42674834878221</v>
+        <v>1.472193907731482</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.509203780620948</v>
@@ -31879,7 +31819,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.433533590555573</v>
+        <v>1.48029453470586</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.399296389943466</v>
@@ -31968,7 +31908,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.439429626877927</v>
+        <v>1.483262968431365</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.472341989830121</v>
@@ -32057,7 +31997,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.472481857050009</v>
+        <v>1.514811025982262</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.268377356936555</v>
